--- a/biology/Botanique/Ochrolechiaceae/Ochrolechiaceae.xlsx
+++ b/biology/Botanique/Ochrolechiaceae/Ochrolechiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ochrolechiaceae sont une petite famille de champignons ascomycètes ne comportant qu'une trentaine d'espèces de lichens encroûtants, associés à des algues vertes du groupe des chlorococcales. Ils abondent surtout dans les régions froides et tempérées et sont rares dans les zones tropicales[1]. La famille n'a que tardivement été séparée de celle des Pertusariaceae, dont elle reste proche[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ochrolechiaceae sont une petite famille de champignons ascomycètes ne comportant qu'une trentaine d'espèces de lichens encroûtants, associés à des algues vertes du groupe des chlorococcales. Ils abondent surtout dans les régions froides et tempérées et sont rares dans les zones tropicales. La famille n'a que tardivement été séparée de celle des Pertusariaceae, dont elle reste proche.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Myconet[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Myconet :
 Ochrolechia
 Varicellaria
 </t>
